--- a/kodlar.xlsx
+++ b/kodlar.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sayfa1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="kodlar" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="adminler" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>kodlar</t>
   </si>
@@ -23,6 +24,12 @@
   </si>
   <si>
     <t>Hasan</t>
+  </si>
+  <si>
+    <t>Mert</t>
+  </si>
+  <si>
+    <t>hasan</t>
   </si>
 </sst>
 </file>
@@ -72,6 +79,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -306,4 +317,43 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>4444.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>3333.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/kodlar.xlsx
+++ b/kodlar.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>kodlar</t>
+    <t>kod</t>
   </si>
   <si>
     <t>isim</t>

--- a/kodlar.xlsx
+++ b/kodlar.xlsx
@@ -5,7 +5,10 @@
   <sheets>
     <sheet state="visible" name="kodlar" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="isim">kodlar!$B:$B</definedName>
+    <definedName name="KOD">kodlar!$A:$A</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>

--- a/kodlar.xlsx
+++ b/kodlar.xlsx
@@ -8,18 +8,22 @@
   <definedNames>
     <definedName name="isim">kodlar!$B:$B</definedName>
     <definedName name="KOD">kodlar!$A:$A</definedName>
+    <definedName name="ıd">kodlar!$C:$C</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>kod</t>
-  </si>
-  <si>
-    <t>isim</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Kod</t>
+  </si>
+  <si>
+    <t>İsim</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>mert</t>
@@ -292,13 +296,16 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1234.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -306,7 +313,7 @@
         <v>1122.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -314,7 +321,7 @@
         <v>3333.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/kodlar.xlsx
+++ b/kodlar.xlsx
@@ -26,23 +26,29 @@
     <t>ID</t>
   </si>
   <si>
-    <t>mert</t>
-  </si>
-  <si>
-    <t>Hasan</t>
-  </si>
-  <si>
-    <t>AHMET</t>
+    <t>Mert</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Ayşe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -66,11 +72,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -301,26 +310,26 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1234.0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>1122.0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="2">
+        <v>5678.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>3333.0</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="2">
+        <v>9012.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/kodlar.xlsx
+++ b/kodlar.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="kodlar" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="isim">kodlar!$B:$B</definedName>
-    <definedName name="KOD">kodlar!$A:$A</definedName>
-    <definedName name="ıd">kodlar!$C:$C</definedName>
-  </definedNames>
-  <calcPr/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -38,23 +37,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -63,88 +60,159 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -156,149 +224,178 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -309,31 +406,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>1234.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1234</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>5678.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>5678</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>9012.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>9012</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>